--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-36/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_15-36/curvature_data.xlsx
@@ -393,226 +393,226 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>56331.107157</v>
+        <v>56236.639152</v>
       </c>
       <c r="B3">
-        <v>-2.9121959633e-05</v>
+        <v>4.2529683983e-05</v>
       </c>
       <c r="C3">
-        <v>-0.00046737766603</v>
+        <v>-5.1917133903e-05</v>
       </c>
       <c r="D3">
-        <v>-0.00068302143496</v>
+        <v>-0.00015716575988</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>56362.839159</v>
+        <v>56246.307153</v>
       </c>
       <c r="B4">
-        <v>7.2541803675e-05</v>
+        <v>4.3660152103e-05</v>
       </c>
       <c r="C4">
-        <v>-0.00027397392204</v>
+        <v>-0.0001291396985</v>
       </c>
       <c r="D4">
-        <v>-0.00039777548879</v>
+        <v>-0.00023433611554</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>56341.039158</v>
+        <v>56256.239153</v>
       </c>
       <c r="B5">
-        <v>6.0898945598e-06</v>
+        <v>7.544411458299999e-05</v>
       </c>
       <c r="C5">
-        <v>-0.00039951668865</v>
+        <v>-0.00020455645934</v>
       </c>
       <c r="D5">
-        <v>-0.00059185950879</v>
+        <v>-0.00031645552754</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>56236.639152</v>
+        <v>56266.375154</v>
       </c>
       <c r="B6">
-        <v>4.2529683983e-05</v>
+        <v>5.2416867564e-05</v>
       </c>
       <c r="C6">
-        <v>-5.1917133903e-05</v>
+        <v>-0.00027770046963</v>
       </c>
       <c r="D6">
-        <v>-0.00015716575988</v>
+        <v>-0.00040134897088</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>56352.239158</v>
+        <v>56277.639154</v>
       </c>
       <c r="B7">
-        <v>6.4088292833e-05</v>
+        <v>5.6231943731e-05</v>
       </c>
       <c r="C7">
-        <v>-0.00033022832754</v>
+        <v>-0.0003332780105</v>
       </c>
       <c r="D7">
-        <v>-0.00049800265902</v>
+        <v>-0.00050363482167</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>56256.239153</v>
+        <v>56287.907155</v>
       </c>
       <c r="B8">
-        <v>7.544411458299999e-05</v>
+        <v>1.8418360932e-05</v>
       </c>
       <c r="C8">
-        <v>-0.00020455645934</v>
+        <v>-0.0004043360243</v>
       </c>
       <c r="D8">
-        <v>-0.00031645552754</v>
+        <v>-0.0005914204497700001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>56266.375154</v>
+        <v>56297.907155</v>
       </c>
       <c r="B9">
-        <v>5.2416867564e-05</v>
+        <v>-7.0814093853e-06</v>
       </c>
       <c r="C9">
-        <v>-0.00027770046963</v>
+        <v>-0.00047411691144</v>
       </c>
       <c r="D9">
-        <v>-0.00040134897088</v>
+        <v>-0.0006762154089200001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>56372.775159</v>
+        <v>56308.107156</v>
       </c>
       <c r="B10">
-        <v>4.2793110426e-05</v>
+        <v>-4.6909520501e-05</v>
       </c>
       <c r="C10">
-        <v>-0.00020026087452</v>
+        <v>-0.0005441605144</v>
       </c>
       <c r="D10">
-        <v>-0.00031961483392</v>
+        <v>-0.00076487412164</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>56287.907155</v>
+        <v>56331.107157</v>
       </c>
       <c r="B11">
-        <v>1.8418360932e-05</v>
+        <v>-2.9121959633e-05</v>
       </c>
       <c r="C11">
-        <v>-0.0004043360243</v>
+        <v>-0.00046737766603</v>
       </c>
       <c r="D11">
-        <v>-0.0005914204497700001</v>
+        <v>-0.00068302143496</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>56246.307153</v>
+        <v>56341.039158</v>
       </c>
       <c r="B12">
-        <v>4.3660152103e-05</v>
+        <v>6.0898945598e-06</v>
       </c>
       <c r="C12">
-        <v>-0.0001291396985</v>
+        <v>-0.00039951668865</v>
       </c>
       <c r="D12">
-        <v>-0.00023433611554</v>
+        <v>-0.00059185950879</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>56297.907155</v>
+        <v>56352.239158</v>
       </c>
       <c r="B13">
-        <v>-7.0814093853e-06</v>
+        <v>6.4088292833e-05</v>
       </c>
       <c r="C13">
-        <v>-0.00047411691144</v>
+        <v>-0.00033022832754</v>
       </c>
       <c r="D13">
-        <v>-0.0006762154089200001</v>
+        <v>-0.00049800265902</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>56392.70716</v>
+        <v>56362.839159</v>
       </c>
       <c r="B14">
-        <v>0.00011281958276</v>
+        <v>7.2541803675e-05</v>
       </c>
       <c r="C14">
-        <v>-3.0933551722e-05</v>
+        <v>-0.00027397392204</v>
       </c>
       <c r="D14">
-        <v>-0.00015866600222</v>
+        <v>-0.00039777548879</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>56277.639154</v>
+        <v>56372.775159</v>
       </c>
       <c r="B15">
-        <v>5.6231943731e-05</v>
+        <v>4.2793110426e-05</v>
       </c>
       <c r="C15">
-        <v>-0.0003332780105</v>
+        <v>-0.00020026087452</v>
       </c>
       <c r="D15">
-        <v>-0.00050363482167</v>
+        <v>-0.00031961483392</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>56308.107156</v>
+        <v>56382.10716</v>
       </c>
       <c r="B16">
-        <v>-4.6909520501e-05</v>
+        <v>5.9260138816e-05</v>
       </c>
       <c r="C16">
-        <v>-0.0005441605144</v>
+        <v>-0.00012046951482</v>
       </c>
       <c r="D16">
-        <v>-0.00076487412164</v>
+        <v>-0.00023800370581</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>56402.439161</v>
+        <v>56392.70716</v>
       </c>
       <c r="B17">
-        <v>-1.7814245378e-05</v>
+        <v>0.00011281958276</v>
       </c>
       <c r="C17">
-        <v>-2.2245629718e-05</v>
+        <v>-3.0933551722e-05</v>
       </c>
       <c r="D17">
-        <v>-3.5364572836e-05</v>
+        <v>-0.00015866600222</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>56382.10716</v>
+        <v>56402.439161</v>
       </c>
       <c r="B18">
-        <v>5.9260138816e-05</v>
+        <v>-1.7814245378e-05</v>
       </c>
       <c r="C18">
-        <v>-0.00012046951482</v>
+        <v>-2.2245629718e-05</v>
       </c>
       <c r="D18">
-        <v>-0.00023800370581</v>
+        <v>-3.5364572836e-05</v>
       </c>
     </row>
   </sheetData>
